--- a/trunk/Docs/worksheet.xlsx
+++ b/trunk/Docs/worksheet.xlsx
@@ -1,36 +1,338 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Total" sheetId="4" r:id="rId1"/>
+    <sheet name="1srt Sprint" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="80">
+  <si>
+    <t>根据区号自动生成可打时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新员工前两周不参与统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>人民币和美元之间转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据区号自动生成可打时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新员工前两周不参与统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲方提供发布环境/ftp上传环境</t>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>功能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nice To Have</t>
+  </si>
+  <si>
+    <t>Not Implement</t>
+  </si>
+  <si>
+    <t>Must Have</t>
+  </si>
+  <si>
+    <t>甲方提供ftp上传环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆系统的唯一入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽所有的非认证用户调用服务的链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方提供安装了发布环境的测试服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传调研数据，更改调研数据，需要进行一定的压力测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lead功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wiki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方提供ＳＱＬ 2008数据库并允许远程接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新的角色/给新的角色赋权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆数据的密码加密处理，避免明文密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色的维护功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义角色，并根据需求定义各个角色的权限大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括电话号码，电子邮箱合法性检查，数据完整性检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司信息的查看权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场部只能察看邮件，产品部只能查看不能更改，销售员工只能查看别人上传得信息，不能更改，可以更改自己传信息，ＴＬ以上角色拥有完整的数据操作权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研功能上传，修改，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话模板数据维护　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司的信息数据维护　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用模板数据的维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lead对应的LeadSheet维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lead信息的查看权限分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目的基本信息维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目添加成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型的权限只有高层能调用，每个类型均支持增删查改，
+每个管理为４个页面，类型维护页面总数为=类型个数*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议管理　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个package下可以添加一个到多个子项，子项的内容根据门票类别，和服务类型两个纬度决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据柱状图显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目进展表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Must Have 必须完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nice To Have 期望完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Implement 这个sprint不进行开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目分解表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有被引用的类型(字典)的管理，只有高层可以调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日会议显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日要打电话显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和每天工作相关的功能入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据权限进行配置，比如上传调研只在销售员工里出现，
+解答疑难只在版块负责人，产品部接口人中出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言解答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目目标／进度比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一登陆页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护各个用户的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参会代表维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致电结果所有可能性归纳总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时电话帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括并不局限于：公司类型，Lead类型，职位类型，行业类型，付款类型，
+货币类型，会议类型，参会类型，服务类型，Package类型，致电结果类型，模板类型，实时电话帮助模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时电话帮助功能页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持关键字查询与模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要沟通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,18 +357,101 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -77,21 +462,89 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I54" totalsRowShown="0">
+  <autoFilter ref="A1:I54">
+    <filterColumn colId="0"/>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="11" name="类别"/>
+    <tableColumn id="1" name="功能名称"/>
+    <tableColumn id="3" name="优先级别"/>
+    <tableColumn id="5" name="说明"/>
+    <tableColumn id="6" name="测试说明"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="完成度"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -375,55 +828,1191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
+    <col min="4" max="4" width="56.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="45" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9"/>
+      <c r="B25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" ht="27">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" ht="27">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="9"/>
+      <c r="B51" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6"/>
+      <c r="B52" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40.5">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="40.5">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27">
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="27">
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C19 C3 C22:C54">
+      <formula1>"Must Have,Nice To Have,Not Implement"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -439,4 +2028,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>